--- a/DaySale_2025-05-20_19-40.xlsx
+++ b/DaySale_2025-05-20_19-40.xlsx
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.819861831609</v>
+        <v>45797.819881045412</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1165,7 +1165,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.819861831609</v>
+        <v>45797.819881045412</v>
       </c>
       <c r="K4" s="4"/>
     </row>
